--- a/商業（しょうぎょう）.xlsx
+++ b/商業（しょうぎょう）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B63E7D-A5FA-44A2-B906-21CA7273ECB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D993BC3-301B-4000-81B0-E1E48F9EA422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="11652" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="278">
   <si>
     <t>飛び込み来店</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1421,6 +1421,94 @@
   </si>
   <si>
     <t>さがく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お釣り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おつり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>零头）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黒字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くろじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（盈利）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あかじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赤字）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうりょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收费）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有料道路｜ゆうりょうどうろ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1428,7 +1516,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1467,6 +1555,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -1776,10 +1871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2328,6 +2423,53 @@
       </c>
       <c r="J32" s="1" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I33" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I34" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I35" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I36" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/商業（しょうぎょう）.xlsx
+++ b/商業（しょうぎょう）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D993BC3-301B-4000-81B0-E1E48F9EA422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A973112-F85D-4306-8353-0275B52373CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="284">
   <si>
     <t>飛び込み来店</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1509,6 +1509,54 @@
   </si>
   <si>
     <t>有料道路｜ゆうりょうどうろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>売上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うりあげ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营业额，营销额）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大売り出し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおうりだし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大甩卖）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1871,10 +1919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2324,6 +2372,15 @@
       </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E21" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>120</v>
       </c>
@@ -2470,6 +2527,17 @@
       </c>
       <c r="L36" s="1" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I37" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/商業（しょうぎょう）.xlsx
+++ b/商業（しょうぎょう）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A973112-F85D-4306-8353-0275B52373CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9106548E-AF97-47FB-BBE0-A51A6CB54B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1921,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1935,7 +1935,9 @@
     <col min="8" max="9" width="8.88671875" style="1"/>
     <col min="10" max="10" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">

--- a/商業（しょうぎょう）.xlsx
+++ b/商業（しょうぎょう）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9106548E-AF97-47FB-BBE0-A51A6CB54B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F47CA8-1681-411C-A6FF-8C4A4F8D6560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="289">
   <si>
     <t>飛び込み来店</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1557,6 +1557,38 @@
       </rPr>
       <t>大甩卖）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>売れ行き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うれゆき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售情况）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>売れ行きが思わしくない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售情况不太好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1919,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2484,7 +2516,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I33" s="1" t="s">
         <v>265</v>
       </c>
@@ -2495,7 +2527,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="34" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I34" s="1" t="s">
         <v>268</v>
       </c>
@@ -2506,7 +2538,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I35" s="1" t="s">
         <v>271</v>
       </c>
@@ -2517,7 +2549,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I36" s="1" t="s">
         <v>274</v>
       </c>
@@ -2531,7 +2563,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="37" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I37" s="1" t="s">
         <v>278</v>
       </c>
@@ -2540,6 +2572,23 @@
       </c>
       <c r="K37" s="1" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.45">
+      <c r="I38" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/商業（しょうぎょう）.xlsx
+++ b/商業（しょうぎょう）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F47CA8-1681-411C-A6FF-8C4A4F8D6560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F7DC39-5FDB-4F64-AFF8-25AA2FE7206D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="292">
   <si>
     <t>飛び込み来店</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1589,6 +1589,30 @@
   </si>
   <si>
     <t>销售情况不太好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偽物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にせもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假货）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1951,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2589,6 +2613,17 @@
       </c>
       <c r="M38" s="2" t="s">
         <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="9:13" x14ac:dyDescent="0.45">
+      <c r="I39" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/商業（しょうぎょう）.xlsx
+++ b/商業（しょうぎょう）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F7DC39-5FDB-4F64-AFF8-25AA2FE7206D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A94EFA-2BDA-4A4F-BEC2-2091453E20AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1977,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2770,7 +2770,7 @@
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2934,7 +2934,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3117,7 +3117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0144CB0-BB64-445B-BA43-1F6AC8533DE4}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/商業（しょうぎょう）.xlsx
+++ b/商業（しょうぎょう）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A94EFA-2BDA-4A4F-BEC2-2091453E20AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE69942-7B0C-4BCB-A232-622A7C893871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>しょうひｎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>風評被害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1613,6 +1609,10 @@
       </rPr>
       <t>假货）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうひん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1978,7 +1978,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1998,7 +1998,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
@@ -2024,13 +2024,13 @@
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
@@ -2053,10 +2053,10 @@
         <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -2079,18 +2079,18 @@
         <v>21</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -2099,7 +2099,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>22</v>
@@ -2108,18 +2108,18 @@
         <v>23</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>32</v>
@@ -2128,24 +2128,24 @@
         <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
@@ -2154,27 +2154,27 @@
         <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="L7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>35</v>
@@ -2183,7 +2183,7 @@
         <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>48</v>
@@ -2192,21 +2192,21 @@
         <v>49</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>37</v>
@@ -2215,33 +2215,33 @@
         <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>39</v>
@@ -2250,30 +2250,30 @@
         <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="L10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>45</v>
@@ -2285,345 +2285,345 @@
         <v>47</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="I14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="I15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="I16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="I17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="I18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="I20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="I21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.45">
       <c r="I22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.45">
       <c r="I23" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.45">
       <c r="I24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.45">
       <c r="I25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="5:11" x14ac:dyDescent="0.45">
       <c r="I26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.45">
       <c r="I27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.45">
       <c r="I28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.45">
       <c r="I29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="K29" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.45">
       <c r="I30" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.45">
       <c r="I31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.45">
       <c r="I32" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="33" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I33" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="34" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="35" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I35" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="36" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I36" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="37" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I37" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="38" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I38" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="39" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I39" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2694,69 +2694,69 @@
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2769,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4C2284-DD7E-445F-8465-037D77841529}">
   <dimension ref="A2:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2787,24 +2787,24 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -2825,10 +2825,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -2860,67 +2860,67 @@
         <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2934,7 +2934,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D6" sqref="D6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2951,10 +2951,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2965,10 +2965,10 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2982,10 +2982,10 @@
         <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2996,115 +2996,115 @@
         <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3118,17 +3118,17 @@
   <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
